--- a/ToM/compVsMimic_Etude/EtudeFinale/cleanData.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/cleanData.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Bob" sheetId="5" r:id="rId1"/>
     <sheet name="Arthur" sheetId="3" r:id="rId2"/>
     <sheet name="Kevin" sheetId="2" r:id="rId3"/>
+    <sheet name="manipulationBob" sheetId="7" r:id="rId4"/>
+    <sheet name="manipulationArthur" sheetId="8" r:id="rId5"/>
+    <sheet name="ManipulationKevin" sheetId="9" r:id="rId6"/>
+    <sheet name="Feuil6" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Arthur" localSheetId="1">Arthur!$A$1:$AC$63</definedName>
@@ -148,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>UserNum</t>
   </si>
@@ -234,6 +238,15 @@
     <t>utilisateur_SQ009</t>
   </si>
   <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
     <t>pp_SQ001</t>
   </si>
   <si>
@@ -298,6 +311,48 @@
   </si>
   <si>
     <t>utilisteur_SQ009</t>
+  </si>
+  <si>
+    <t>Ambiance</t>
+  </si>
+  <si>
+    <t>Japonais</t>
+  </si>
+  <si>
+    <t>calme</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>chic</t>
+  </si>
+  <si>
+    <t>MONGOLIAN</t>
+  </si>
+  <si>
+    <t>JILIYA</t>
+  </si>
+  <si>
+    <t>SUNDAE</t>
+  </si>
+  <si>
+    <t>ELROSARIO</t>
+  </si>
+  <si>
+    <t>CHEZ_FELIX</t>
+  </si>
+  <si>
+    <t>NARITAKE1</t>
+  </si>
+  <si>
+    <t>DRAGON_DOR1</t>
+  </si>
+  <si>
+    <t>DOENJANG</t>
   </si>
 </sst>
 </file>
@@ -650,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,8 +6230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" activeCellId="2" sqref="A1:A1048576 D1:D1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6192,16 +6247,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -6219,58 +6274,58 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Y1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AB1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -11700,8 +11755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCellId="2" sqref="D1:D1048576 E1:E1048576 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11717,16 +11772,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -11744,58 +11799,58 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Y1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AB1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -17214,6 +17269,2549 @@
       </c>
       <c r="AB64">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>59</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>61</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>67</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>68</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>70</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>71</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>73</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>74</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>76</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>78</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>79</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>59</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>61</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>67</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>68</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>70</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>71</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>73</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>74</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>76</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>78</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>79</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>59</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>61</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>67</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>68</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>70</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>71</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>73</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>74</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>76</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>78</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>79</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ToM/compVsMimic_Etude/EtudeFinale/cleanData.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/cleanData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Bob" sheetId="1" r:id="rId1"/>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="V41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6391,8 +6391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="P57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11746,8 +11746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="P41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17804,7 +17804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -20132,8 +20132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H71" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
